--- a/M4a_physikpraktikum_kennlinien.xlsx
+++ b/M4a_physikpraktikum_kennlinien.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jerome/Desktop/Schule/Physik/Praktikas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jerome/Desktop/Schule/Physik/Praktikas/elektrLeiter/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="16760" yWindow="1260" windowWidth="17500" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Spannung U [V]</t>
   </si>
@@ -95,7 +95,7 @@
     <t>± 0.05 mA</t>
   </si>
   <si>
-    <t>Widerstand R = U/I</t>
+    <t>Steigung (I/U)</t>
   </si>
 </sst>
 </file>
@@ -159,22 +159,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -454,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,17 +468,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -550,28 +551,32 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <f>C3*1000/C4</f>
-        <v>8.5714285714285712</v>
+        <f>C4/C3</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:H5" si="0">D3*1000/D4</f>
-        <v>9.2307692307692299</v>
+        <f t="shared" ref="D5:H5" si="0">D4/D3</f>
+        <v>108.33333333333334</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>8.8669950738916263</v>
+        <v>112.77777777777777</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>9.3283582089552244</v>
+        <v>107.2</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>8.9855072463768124</v>
+        <v>111.29032258064515</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>9.2039800995024876</v>
+        <v>108.64864864864865</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(C5:H5)</f>
+        <v>110.81945816784526</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -645,26 +650,29 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <f>C8*1000/C9</f>
-        <v>11.428571428571429</v>
+        <f>C9/C8</f>
+        <v>87.5</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:G10" si="1">D8*1000/D9</f>
-        <v>10.619469026548673</v>
+        <f t="shared" ref="D10:G10" si="1">D9/D8</f>
+        <v>94.166666666666671</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>11.111111111111111</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>11.162790697674419</v>
+        <v>89.583333333333343</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>11.272727272727273</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>88.709677419354833</v>
+      </c>
+      <c r="I10" s="1">
+        <f>AVERAGE(C10:G10)</f>
+        <v>89.991935483870961</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -737,51 +745,55 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <f>C13*1000/C14</f>
-        <v>13.636363636363637</v>
+        <f>C14/C13</f>
+        <v>73.333333333333343</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:G15" si="2">D13*1000/D14</f>
-        <v>13.636363636363637</v>
+        <f t="shared" ref="D15:G15" si="2">D14/D13</f>
+        <v>73.333333333333343</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>13.846153846153847</v>
+        <v>72.222222222222214</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>13.513513513513514</v>
+        <v>74</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>13.617021276595745</v>
+        <v>73.4375</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(C15:G15)</f>
+        <v>73.265277777777783</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -848,42 +860,46 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <f>C18/C19</f>
-        <v>346.08695652173907</v>
+        <f>C19/C18</f>
+        <v>2.889447236180905E-3</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:H20" si="3">D18/D19</f>
-        <v>515.38461538461547</v>
+        <f>D19/D18</f>
+        <v>1.9402985074626865E-3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
-        <v>631.57894736842104</v>
+        <f t="shared" ref="D20:H20" si="3">E19/E18</f>
+        <v>1.5833333333333333E-3</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
-        <v>727.27272727272725</v>
+        <v>1.3749999999999999E-3</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>806.45161290322585</v>
+        <v>1.24E-3</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>882.35294117647049</v>
+        <v>1.1333333333333334E-3</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(C20:H20)</f>
+        <v>1.6935687350517097E-3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -912,7 +928,7 @@
       <c r="H22">
         <v>240</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -941,7 +957,7 @@
       <c r="H23">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -950,42 +966,46 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <f>C22/C23</f>
-        <v>952.38095238095229</v>
+        <f>C23/C22</f>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:H24" si="4">D22/D23</f>
-        <v>1000</v>
+        <f t="shared" ref="D24:H24" si="4">D23/D22</f>
+        <v>1E-3</v>
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
-        <v>983.60655737704917</v>
+        <v>1.0166666666666666E-3</v>
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>941.17647058823525</v>
+        <v>1.0625000000000001E-3</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
-        <v>909.50226244343889</v>
+        <v>1.099502487562189E-3</v>
       </c>
       <c r="H24">
         <f t="shared" si="4"/>
-        <v>872.72727272727263</v>
+        <v>1.1458333333333333E-3</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGE(C24:H24)</f>
+        <v>1.0624170812603649E-3</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="O25" s="1" t="s">
         <v>3</v>
       </c>
@@ -994,40 +1014,40 @@
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
         <v>40.299999999999997</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>80</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>100</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="4">
         <v>105</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="4">
         <v>110</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="4">
         <v>115</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="4">
         <v>120</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="4">
         <v>125</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="4">
         <v>130</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="4">
         <v>135</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="4">
         <v>140</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -1038,55 +1058,95 @@
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>0.09</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>0.44</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="4">
         <v>0.61</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="4">
         <v>0.81</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="4">
         <v>1.02</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="4">
         <v>1.24</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="4">
         <v>1.5</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="4">
         <v>1.74</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="4">
         <v>2.02</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+    <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9">
+        <f>C27/C26</f>
+        <v>1.7369727047146404E-3</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" ref="D28:M28" si="5">D27/D26</f>
+        <v>8.7500000000000013E-4</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="5"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="5"/>
+        <v>4.1904761904761906E-3</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="5"/>
+        <v>5.5454545454545453E-3</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="5"/>
+        <v>7.0434782608695653E-3</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="5"/>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="5"/>
+        <v>9.92E-3</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="5"/>
+        <v>1.1538461538461539E-2</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2888888888888889E-2</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="5"/>
+        <v>1.4428571428571429E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>

--- a/M4a_physikpraktikum_kennlinien.xlsx
+++ b/M4a_physikpraktikum_kennlinien.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16760" yWindow="1260" windowWidth="17500" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Spannung U [V]</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Endtemperatur = 117° ± 0.5°</t>
   </si>
   <si>
-    <t>Temperatur = 119° ± 1°</t>
-  </si>
-  <si>
     <t>Eisendraht im Heizbad</t>
   </si>
   <si>
@@ -96,6 +93,30 @@
   </si>
   <si>
     <t>Steigung (I/U)</t>
+  </si>
+  <si>
+    <t>Widerstand R = U/I</t>
+  </si>
+  <si>
+    <t>Leistung P = U*I</t>
+  </si>
+  <si>
+    <t>4te Wurzel P</t>
+  </si>
+  <si>
+    <t>Temperatur = 119° ± 2°</t>
+  </si>
+  <si>
+    <t>A/l</t>
+  </si>
+  <si>
+    <t>Rho1</t>
+  </si>
+  <si>
+    <t>Rho2</t>
+  </si>
+  <si>
+    <t>Rho3</t>
   </si>
 </sst>
 </file>
@@ -159,23 +180,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -453,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:I25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,22 +485,23 @@
     <col min="2" max="2" width="35.83203125" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -488,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -546,9 +567,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <f>C4/C3</f>
@@ -575,11 +596,15 @@
         <v>108.64864864864865</v>
       </c>
       <c r="I5">
-        <f>AVERAGE(C5:H5)</f>
-        <v>110.81945816784526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <f>AVERAGE(C5:H5)/1000</f>
+        <v>0.11081945816784526</v>
+      </c>
+      <c r="J5">
+        <f>1/I5</f>
+        <v>9.0236860613902028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -593,7 +618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -645,9 +670,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <f>C9/C8</f>
@@ -670,13 +695,17 @@
         <v>88.709677419354833</v>
       </c>
       <c r="I10" s="1">
-        <f>AVERAGE(C10:G10)</f>
-        <v>89.991935483870961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <f>AVERAGE(C10:G10)/1000</f>
+        <v>8.9991935483870966E-2</v>
+      </c>
+      <c r="J10">
+        <f>1/I10</f>
+        <v>11.112106819607492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -688,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -740,9 +769,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <f>C14/C13</f>
@@ -765,39 +794,43 @@
         <v>73.4375</v>
       </c>
       <c r="I15">
-        <f>AVERAGE(C15:G15)</f>
-        <v>73.265277777777783</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+        <f>AVERAGE(C15:G15)/1000</f>
+        <v>7.3265277777777776E-2</v>
+      </c>
+      <c r="J15">
+        <f>1/I15</f>
+        <v>13.649030350135543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,10 +856,10 @@
         <v>240</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -852,12 +885,12 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <f>C19/C18</f>
@@ -868,7 +901,7 @@
         <v>1.9402985074626865E-3</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="D20:H20" si="3">E19/E18</f>
+        <f t="shared" ref="E20:H20" si="3">E19/E18</f>
         <v>1.5833333333333333E-3</v>
       </c>
       <c r="F20">
@@ -888,280 +921,406 @@
         <v>1.6935687350517097E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>C18/C19</f>
+        <v>346.08695652173907</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:H21" si="4">D18/D19</f>
+        <v>515.38461538461547</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>631.57894736842104</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>727.27272727272725</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>806.45161290322585</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>882.35294117647049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:H22" si="5">C18*C19</f>
+        <v>4.577</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>12.542400000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>22.8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>49.6</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>65.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <f>B22^0.25</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>C22^0.25</f>
+        <v>1.4626662083737829</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:H23" si="6">D22^0.25</f>
+        <v>1.8818940180599144</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>2.1851623634241299</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>2.4357665712618131</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>2.6538136228197344</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>2.8424644150260985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>81</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26">
+        <v>160</v>
+      </c>
+      <c r="G26">
+        <v>201</v>
+      </c>
+      <c r="H26">
+        <v>240</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D27">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.122</v>
+      </c>
+      <c r="F27">
+        <v>0.17</v>
+      </c>
+      <c r="G27">
+        <v>0.221</v>
+      </c>
+      <c r="H27">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <f>C27/C26</f>
+        <v>1.0500000000000002E-3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:H28" si="7">D27/D26</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="7"/>
+        <v>1.0166666666666666E-3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>1.0625000000000001E-3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="7"/>
+        <v>1.099502487562189E-3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>1.1458333333333333E-3</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(C28:H28)</f>
+        <v>1.0624170812603649E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="3" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="N32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>40</v>
-      </c>
-      <c r="D22">
-        <v>81</v>
-      </c>
-      <c r="E22">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D33" s="4">
+        <v>80</v>
+      </c>
+      <c r="E33" s="4">
+        <v>100</v>
+      </c>
+      <c r="F33" s="4">
+        <v>105</v>
+      </c>
+      <c r="G33" s="4">
+        <v>110</v>
+      </c>
+      <c r="H33" s="4">
+        <v>115</v>
+      </c>
+      <c r="I33" s="4">
         <v>120</v>
       </c>
-      <c r="F22">
-        <v>160</v>
-      </c>
-      <c r="G22">
-        <v>201</v>
-      </c>
-      <c r="H22">
-        <v>240</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D23">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="E23">
-        <v>0.122</v>
-      </c>
-      <c r="F23">
-        <v>0.17</v>
-      </c>
-      <c r="G23">
-        <v>0.221</v>
-      </c>
-      <c r="H23">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <f>C23/C22</f>
-        <v>1.0500000000000002E-3</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24:H24" si="4">D23/D22</f>
-        <v>1E-3</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="4"/>
-        <v>1.0166666666666666E-3</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="4"/>
-        <v>1.0625000000000001E-3</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>1.099502487562189E-3</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="4"/>
-        <v>1.1458333333333333E-3</v>
-      </c>
-      <c r="I24">
-        <f>AVERAGE(C24:H24)</f>
-        <v>1.0624170812603649E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="J33" s="4">
+        <v>125</v>
+      </c>
+      <c r="K33" s="4">
+        <v>130</v>
+      </c>
+      <c r="L33" s="4">
+        <v>135</v>
+      </c>
+      <c r="M33" s="4">
+        <v>140</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="O25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="D26" s="4">
-        <v>80</v>
-      </c>
-      <c r="E26" s="4">
-        <v>100</v>
-      </c>
-      <c r="F26" s="4">
-        <v>105</v>
-      </c>
-      <c r="G26" s="4">
-        <v>110</v>
-      </c>
-      <c r="H26" s="4">
-        <v>115</v>
-      </c>
-      <c r="I26" s="4">
-        <v>120</v>
-      </c>
-      <c r="J26" s="4">
-        <v>125</v>
-      </c>
-      <c r="K26" s="4">
-        <v>130</v>
-      </c>
-      <c r="L26" s="4">
-        <v>135</v>
-      </c>
-      <c r="M26" s="4">
-        <v>140</v>
-      </c>
-      <c r="O26" s="1" t="s">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1.24</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="M34" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D27" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="I27" s="4">
-        <v>1.02</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1.24</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="L27" s="4">
-        <v>1.74</v>
-      </c>
-      <c r="M27" s="4">
-        <v>2.02</v>
-      </c>
-      <c r="O27" s="1" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9">
-        <f>C27/C26</f>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6">
+        <f>C34/C33</f>
         <v>1.7369727047146404E-3</v>
       </c>
-      <c r="D28" s="9">
-        <f t="shared" ref="D28:M28" si="5">D27/D26</f>
+      <c r="D35" s="6">
+        <f t="shared" ref="D35:M35" si="8">D34/D33</f>
         <v>8.7500000000000013E-4</v>
       </c>
-      <c r="E28" s="9">
-        <f t="shared" si="5"/>
+      <c r="E35" s="6">
+        <f t="shared" si="8"/>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F28" s="9">
-        <f t="shared" si="5"/>
+      <c r="F35" s="6">
+        <f t="shared" si="8"/>
         <v>4.1904761904761906E-3</v>
       </c>
-      <c r="G28" s="9">
-        <f t="shared" si="5"/>
+      <c r="G35" s="6">
+        <f t="shared" si="8"/>
         <v>5.5454545454545453E-3</v>
       </c>
-      <c r="H28" s="9">
-        <f t="shared" si="5"/>
+      <c r="H35" s="6">
+        <f t="shared" si="8"/>
         <v>7.0434782608695653E-3</v>
       </c>
-      <c r="I28" s="9">
-        <f t="shared" si="5"/>
+      <c r="I35" s="6">
+        <f t="shared" si="8"/>
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="J28" s="9">
-        <f t="shared" si="5"/>
+      <c r="J35" s="6">
+        <f t="shared" si="8"/>
         <v>9.92E-3</v>
       </c>
-      <c r="K28" s="9">
-        <f t="shared" si="5"/>
+      <c r="K35" s="6">
+        <f t="shared" si="8"/>
         <v>1.1538461538461539E-2</v>
       </c>
-      <c r="L28" s="9">
-        <f t="shared" si="5"/>
+      <c r="L35" s="6">
+        <f t="shared" si="8"/>
         <v>1.2888888888888889E-2</v>
       </c>
-      <c r="M28" s="9">
-        <f t="shared" si="5"/>
+      <c r="M35" s="6">
+        <f t="shared" si="8"/>
         <v>1.4428571428571429E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <f>J5*D42</f>
+        <v>1.2034844931550786E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40">
+        <f>J10*D42</f>
+        <v>1.4820161243087519E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <f>J15*D42</f>
+        <v>1.820364345705139E-7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <f>0.00015^2*PI()/5.3</f>
+        <v>1.3336949944484969E-8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A25:I25"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/M4a_physikpraktikum_kennlinien.xlsx
+++ b/M4a_physikpraktikum_kennlinien.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Spannung U [V]</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Rho3</t>
+  </si>
+  <si>
+    <t>Temperaturkoeffizient</t>
   </si>
 </sst>
 </file>
@@ -475,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:D43"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,9 +489,10 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -501,15 +505,18 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +544,12 @@
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f>(D40 - D39)/(D39*(73-23))</f>
+        <v>4.6287531370424106E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -566,8 +577,12 @@
       <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f>(D41 - D40)/(D40*(119-72))</f>
+        <v>4.8575033763147771E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -604,7 +619,7 @@
         <v>9.0236860613902028</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -618,7 +633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -670,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -703,7 +718,7 @@
         <v>11.112106819607492</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -717,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -769,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -802,7 +817,7 @@
         <v>13.649030350135543</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>

--- a/M4a_physikpraktikum_kennlinien.xlsx
+++ b/M4a_physikpraktikum_kennlinien.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="3400" windowWidth="18540" windowHeight="13640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -192,11 +192,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -478,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,17 +495,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -818,29 +820,29 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1034,16 +1036,16 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,10 +1332,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A25:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
